--- a/planilha definitiva_01_01.xlsx
+++ b/planilha definitiva_01_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8385" tabRatio="0" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8385" tabRatio="0" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Controle 1" sheetId="4" state="hidden" r:id="rId1"/>
@@ -6044,7 +6044,7 @@
   <dimension ref="C2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,7 +6189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7434,7 +7436,7 @@
   <dimension ref="A2:WWC12"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showWhiteSpace="0" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
